--- a/zase4kak/bin/Debug/Результат лаптайму.xlsx
+++ b/zase4kak/bin/Debug/Результат лаптайму.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33DDC92-7F3B-424B-90E1-71A77F48F9B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D33DDC92-7F3B-424B-90E1-71A77F48F9B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{720A1392-9F7B-46DF-8AEE-FA6DEE33793B}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AAB260D6-7F2F-4FD5-B415-CB9B1ECEE3C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB260D6-7F2F-4FD5-B415-CB9B1ECEE3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Городецький Олег</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>xcz</t>
+  </si>
+  <si>
+    <t>qrw</t>
   </si>
 </sst>
 </file>
@@ -407,9 +419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FCCB47-3A48-41A9-ADD9-FEAEEEFC0B1A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -468,6 +482,26 @@
         <v>3.9114</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
